--- a/src/javaQnA/dataStructures.xlsx
+++ b/src/javaQnA/dataStructures.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supre\Dropbox\FadiSoft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supre\Documents\GitHub\JavaQnA\src\javaQnA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A6268E-4AAF-494D-A0E6-DD2D387FC078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4205F9-F768-486D-AB19-17A6BF2891BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E56D0750-4F4B-4BC3-B18F-D5288C5A487B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="99">
   <si>
     <t>Data Structures</t>
   </si>
@@ -262,9 +262,6 @@
     <t>ArrayBlockingQueue</t>
   </si>
   <si>
-    <t>LinnkedBlockingQueue</t>
-  </si>
-  <si>
     <t>PriorityBlockingQueue</t>
   </si>
   <si>
@@ -278,6 +275,54 @@
   </si>
   <si>
     <t>LinkedListQueue</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>StringBuilder</t>
+  </si>
+  <si>
+    <t>StringBuffer</t>
+  </si>
+  <si>
+    <t>Modifiable</t>
+  </si>
+  <si>
+    <t>Storage Area</t>
+  </si>
+  <si>
+    <t>Thread Safe</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Constant String Pool</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>No (Immutable)</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>LinkedBlockingQueue</t>
   </si>
 </sst>
 </file>
@@ -341,15 +386,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,6 +765,20 @@
 </table>
 </file>
 
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CFFDC44C-9EED-4AA8-B0D0-C25D70721A43}" name="Table1" displayName="Table1" ref="A32:E35" totalsRowShown="0">
+  <autoFilter ref="A32:E35" xr:uid="{CFFDC44C-9EED-4AA8-B0D0-C25D70721A43}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9749C351-52E1-425A-A8F6-89442AB207FF}" name="Strings"/>
+    <tableColumn id="2" xr3:uid="{F886D2FE-C7F9-4AD6-AE5C-60640E85F0F2}" name="Storage Area"/>
+    <tableColumn id="3" xr3:uid="{379DA8B8-054D-4E09-8A96-478D77DC5577}" name="Modifiable"/>
+    <tableColumn id="4" xr3:uid="{2DEECE41-D79C-4C1F-994A-0F80FE5BE3BB}" name="Thread Safe"/>
+    <tableColumn id="5" xr3:uid="{EFD16352-B58E-4D22-BEF7-8474A78BE216}" name="Speed"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1018,21 +1076,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D5A506-83D1-468A-A3D6-0D4DFAAE039A}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
@@ -1042,7 +1102,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -1612,7 +1672,6 @@
       <c r="G19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="5"/>
       <c r="I19" t="s">
         <v>68</v>
       </c>
@@ -1648,7 +1707,6 @@
       <c r="G20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="5"/>
       <c r="I20" t="s">
         <v>69</v>
       </c>
@@ -1684,7 +1742,6 @@
       <c r="G21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="5"/>
       <c r="I21" t="s">
         <v>70</v>
       </c>
@@ -1837,7 +1894,7 @@
         <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="J27" t="s">
         <v>24</v>
@@ -1866,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s">
         <v>9</v>
@@ -1898,7 +1955,7 @@
         <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s">
         <v>9</v>
@@ -1927,7 +1984,7 @@
         <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s">
         <v>24</v>
@@ -1944,25 +2001,40 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" t="s">
         <v>81</v>
       </c>
-      <c r="J31" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" t="s">
-        <v>24</v>
-      </c>
-      <c r="M31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I32" t="s">
-        <v>82</v>
-      </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
@@ -1974,13 +2046,64 @@
       </c>
       <c r="M32" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="7">
+  <tableParts count="8">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
@@ -1988,6 +2111,7 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/javaQnA/dataStructures.xlsx
+++ b/src/javaQnA/dataStructures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supre\Documents\GitHub\JavaQnA\src\javaQnA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4205F9-F768-486D-AB19-17A6BF2891BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C50A27-37BD-4632-8EA1-B5CE4E0FEB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E56D0750-4F4B-4BC3-B18F-D5288C5A487B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="98">
   <si>
     <t>Data Structures</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>LinkedBlockingDequeue</t>
-  </si>
-  <si>
-    <t>LinkedListQueue</t>
   </si>
   <si>
     <t>String</t>
@@ -1078,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D5A506-83D1-468A-A3D6-0D4DFAAE039A}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,7 +1891,7 @@
         <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J27" t="s">
         <v>24</v>
@@ -1984,7 +1981,7 @@
         <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s">
         <v>24</v>
@@ -2018,19 +2015,19 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
         <v>87</v>
       </c>
-      <c r="C32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>88</v>
-      </c>
-      <c r="E32" t="s">
-        <v>89</v>
       </c>
       <c r="I32" t="s">
         <v>81</v>
@@ -2050,53 +2047,53 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
         <v>91</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>92</v>
       </c>
-      <c r="D34" t="s">
-        <v>93</v>
-      </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
         <v>91</v>
       </c>
-      <c r="C35" t="s">
-        <v>92</v>
-      </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
